--- a/documents/master_thesis/convergence_border_vorstadtnetz_german.xlsx
+++ b/documents/master_thesis/convergence_border_vorstadtnetz_german.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benediktibk\Entwicklung\Loadflow\dev\documents\master_thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedikt\Entwicklung\LoadFlow\dev\documents\master_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,22 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>HELM, 64 Bit, LU</t>
-  </si>
-  <si>
-    <t>HELM, 100 Bit, LU</t>
-  </si>
-  <si>
-    <t>HELM, 200 Bit, LU</t>
-  </si>
-  <si>
     <t>Newton-Raphson, LU</t>
-  </si>
-  <si>
-    <t>HELM, 1000 Bit, LU</t>
-  </si>
-  <si>
-    <t>HELM, 10000 Bit, LU</t>
   </si>
   <si>
     <t>Newton-Raphson, SINCAL</t>
@@ -46,22 +31,37 @@
     <t>Method</t>
   </si>
   <si>
-    <t>HELM, 64 Bit, iterativ</t>
+    <t>Konvergenzgrenze [W]</t>
   </si>
   <si>
-    <t>HELM mit Stromiteration, 64 Bit, LU</t>
+    <t>HELM, 64-bit, LU</t>
   </si>
   <si>
-    <t>Stromiteration, LU</t>
+    <t>HELM, 100-bit, LU</t>
   </si>
   <si>
-    <t>Stromiteration, iterativ</t>
+    <t>HELM, 200-bit, LU</t>
   </si>
   <si>
-    <t>Newton-Raphson, iterativ</t>
+    <t>HELM, 1000-bit, LU</t>
   </si>
   <si>
-    <t>Konvergenzgrenze [W]</t>
+    <t>HELM, 10000-bit, LU</t>
+  </si>
+  <si>
+    <t>HELM, 64-bit, iterative</t>
+  </si>
+  <si>
+    <t>Newton-Raphson, iterative</t>
+  </si>
+  <si>
+    <t>Current Iteration, iterative</t>
+  </si>
+  <si>
+    <t>Current Iteration, LU</t>
+  </si>
+  <si>
+    <t>HELM with Current Iteration, 64-bit, LU</t>
   </si>
 </sst>
 </file>
@@ -660,34 +660,34 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>HELM, 64 Bit, iterativ</c:v>
+                  <c:v>HELM, 64-bit, iterative</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HELM, 64 Bit, LU</c:v>
+                  <c:v>HELM, 64-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HELM mit Stromiteration, 64 Bit, LU</c:v>
+                  <c:v>HELM with Current Iteration, 64-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HELM, 100 Bit, LU</c:v>
+                  <c:v>HELM, 100-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HELM, 200 Bit, LU</c:v>
+                  <c:v>HELM, 200-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HELM, 1000 Bit, LU</c:v>
+                  <c:v>HELM, 1000-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HELM, 10000 Bit, LU</c:v>
+                  <c:v>HELM, 10000-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Stromiteration, iterativ</c:v>
+                  <c:v>Current Iteration, iterative</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Stromiteration, LU</c:v>
+                  <c:v>Current Iteration, LU</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Newton-Raphson, iterativ</c:v>
+                  <c:v>Newton-Raphson, iterative</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Newton-Raphson, LU</c:v>
@@ -754,11 +754,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="215099624"/>
-        <c:axId val="215100008"/>
+        <c:axId val="282893120"/>
+        <c:axId val="282893512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215099624"/>
+        <c:axId val="282893120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215100008"/>
+        <c:crossAx val="282893512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215100008"/>
+        <c:axId val="282893512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -852,7 +852,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-AT" sz="1000"/>
-                  <a:t>Konvergenzgrenze </a:t>
+                  <a:t>convergence border </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-AT" sz="1000" baseline="0"/>
@@ -892,7 +892,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -923,7 +923,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215099624"/>
+        <c:crossAx val="282893120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,25 +1030,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>HELM, 64 Bit, LU</c:v>
+                  <c:v>HELM, 64-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HELM mit Stromiteration, 64 Bit, LU</c:v>
+                  <c:v>HELM with Current Iteration, 64-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HELM, 100 Bit, LU</c:v>
+                  <c:v>HELM, 100-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HELM, 200 Bit, LU</c:v>
+                  <c:v>HELM, 200-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HELM, 1000 Bit, LU</c:v>
+                  <c:v>HELM, 1000-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HELM, 10000 Bit, LU</c:v>
+                  <c:v>HELM, 10000-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Stromiteration, LU</c:v>
+                  <c:v>Current Iteration, LU</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Newton-Raphson, LU</c:v>
@@ -1107,11 +1107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="214118392"/>
-        <c:axId val="214118776"/>
+        <c:axId val="282894688"/>
+        <c:axId val="282895864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214118392"/>
+        <c:axId val="282894688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214118776"/>
+        <c:crossAx val="282895864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214118776"/>
+        <c:axId val="282895864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000000"/>
@@ -1205,7 +1205,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-AT" sz="1000"/>
-                  <a:t>Konvergenzgrenze [W]</a:t>
+                  <a:t>convergence border [W]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1271,9 +1271,10 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214118392"/>
+        <c:crossAx val="282894688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1378,19 +1379,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>HELM, 64 Bit, LU</c:v>
+                  <c:v>HELM, 64-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HELM, 100 Bit, LU</c:v>
+                  <c:v>HELM, 100-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HELM, 200 Bit, LU</c:v>
+                  <c:v>HELM, 200-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HELM, 1000 Bit, LU</c:v>
+                  <c:v>HELM, 1000-bit, LU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HELM, 10000 Bit, LU</c:v>
+                  <c:v>HELM, 10000-bit, LU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1437,11 +1438,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="214870832"/>
-        <c:axId val="214871216"/>
+        <c:axId val="282889592"/>
+        <c:axId val="284419344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214870832"/>
+        <c:axId val="282889592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1485,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214871216"/>
+        <c:crossAx val="284419344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214871216"/>
+        <c:axId val="284419344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1976000"/>
@@ -1535,7 +1536,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-AT" sz="1000"/>
-                  <a:t>Konvergenzgrenze </a:t>
+                  <a:t>convergence border </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-AT" sz="1000" baseline="0"/>
@@ -1606,9 +1607,10 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214870832"/>
+        <c:crossAx val="282889592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3648,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,15 +3662,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>345764.16019999998</v>
@@ -3676,7 +3678,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1972808.8378906299</v>
@@ -3684,7 +3686,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>1878051.7579999999</v>
@@ -3692,7 +3694,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1972808.8378906299</v>
@@ -3700,7 +3702,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>1973171.2341308601</v>
@@ -3708,7 +3710,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>1974020.00427246</v>
@@ -3716,7 +3718,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>1974563</v>
@@ -3732,7 +3734,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>1825561.523</v>
@@ -3740,7 +3742,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1631011.9628906299</v>
@@ -3748,7 +3750,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
         <v>1914062.5</v>
@@ -3756,7 +3758,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>288310.38400000002</v>
